--- a/modelos/OBACOM4423020/OBACOM4423020_Sell in_metricas.xlsx
+++ b/modelos/OBACOM4423020/OBACOM4423020_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,79 +473,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B2" t="n">
+        <v>76.84039501652691</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.595881691476858</v>
+      </c>
+      <c r="D2" t="n">
+        <v>151.442131080812</v>
+      </c>
+      <c r="E2" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44789</v>
-      </c>
-      <c r="B2" t="n">
-        <v>93.95391488738107</v>
-      </c>
-      <c r="C2" t="n">
-        <v>27.1544487881772</v>
-      </c>
-      <c r="D2" t="n">
-        <v>163.6365951631815</v>
-      </c>
-      <c r="E2" t="n">
-        <v>132</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44782</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B3" t="n">
+        <v>89.04681481722108</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.54865351224622</v>
+      </c>
+      <c r="D3" t="n">
+        <v>157.1286571007292</v>
+      </c>
+      <c r="E3" t="n">
+        <v>84</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44796</v>
-      </c>
-      <c r="B3" t="n">
-        <v>77.94947473798544</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.60914645812747</v>
-      </c>
-      <c r="D3" t="n">
-        <v>145.0555608696545</v>
-      </c>
-      <c r="E3" t="n">
-        <v>96</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B4" t="n">
+        <v>59.7618281382234</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-11.86910892117097</v>
+      </c>
+      <c r="D4" t="n">
+        <v>136.748632141874</v>
+      </c>
+      <c r="E4" t="n">
+        <v>108</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B4" t="n">
-        <v>94.27613458982621</v>
-      </c>
-      <c r="C4" t="n">
-        <v>28.87626207936273</v>
-      </c>
-      <c r="D4" t="n">
-        <v>160.7336118978307</v>
-      </c>
-      <c r="E4" t="n">
-        <v>84</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="B5" t="n">
-        <v>68.51130238966068</v>
+        <v>131.4630489470787</v>
       </c>
       <c r="C5" t="n">
-        <v>4.155211700304449</v>
+        <v>64.50955676405231</v>
       </c>
       <c r="D5" t="n">
-        <v>134.196265802193</v>
+        <v>203.4481155860128</v>
       </c>
       <c r="E5" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>44803</v>
@@ -553,199 +553,199 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B6" t="n">
+        <v>169.8424738848471</v>
+      </c>
+      <c r="C6" t="n">
+        <v>102.681659424594</v>
+      </c>
+      <c r="D6" t="n">
+        <v>238.355133903257</v>
+      </c>
+      <c r="E6" t="n">
+        <v>168</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44810</v>
-      </c>
-      <c r="B6" t="n">
-        <v>141.3831808720903</v>
-      </c>
-      <c r="C6" t="n">
-        <v>75.36725625755173</v>
-      </c>
-      <c r="D6" t="n">
-        <v>204.060974879961</v>
-      </c>
-      <c r="E6" t="n">
-        <v>60</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44803</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B7" t="n">
+        <v>177.3993384794088</v>
+      </c>
+      <c r="C7" t="n">
+        <v>104.2101556918318</v>
+      </c>
+      <c r="D7" t="n">
+        <v>247.9114509715314</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44817</v>
-      </c>
-      <c r="B7" t="n">
-        <v>184.2932912655522</v>
-      </c>
-      <c r="C7" t="n">
-        <v>118.6573113147158</v>
-      </c>
-      <c r="D7" t="n">
-        <v>248.4989809830715</v>
-      </c>
-      <c r="E7" t="n">
-        <v>168</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44810</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B8" t="n">
+        <v>115.2766057328435</v>
+      </c>
+      <c r="C8" t="n">
+        <v>41.81625020387907</v>
+      </c>
+      <c r="D8" t="n">
+        <v>186.2199654648421</v>
+      </c>
+      <c r="E8" t="n">
+        <v>156</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44824</v>
-      </c>
-      <c r="B8" t="n">
-        <v>189.9794751671639</v>
-      </c>
-      <c r="C8" t="n">
-        <v>122.1377094892812</v>
-      </c>
-      <c r="D8" t="n">
-        <v>256.7864063047253</v>
-      </c>
-      <c r="E8" t="n">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44817</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B9" t="n">
+        <v>55.3783636302561</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-21.29197636853129</v>
+      </c>
+      <c r="D9" t="n">
+        <v>124.744211468378</v>
+      </c>
+      <c r="E9" t="n">
+        <v>84</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44831</v>
-      </c>
-      <c r="B9" t="n">
-        <v>120.9713280925506</v>
-      </c>
-      <c r="C9" t="n">
-        <v>51.75532905816105</v>
-      </c>
-      <c r="D9" t="n">
-        <v>193.4620767332013</v>
-      </c>
-      <c r="E9" t="n">
-        <v>156</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44824</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44838</v>
+        <v>44845</v>
       </c>
       <c r="B10" t="n">
-        <v>61.92803011243915</v>
+        <v>22.2310682248705</v>
       </c>
       <c r="C10" t="n">
-        <v>-9.609508634563028</v>
+        <v>-41.73324758840015</v>
       </c>
       <c r="D10" t="n">
-        <v>125.0161757447389</v>
+        <v>92.79316313868425</v>
       </c>
       <c r="E10" t="n">
         <v>84</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44831</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B11" t="n">
+        <v>40.62188143414139</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-31.2618265974438</v>
+      </c>
+      <c r="D11" t="n">
+        <v>120.1780806230177</v>
+      </c>
+      <c r="E11" t="n">
+        <v>144</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44845</v>
-      </c>
-      <c r="B11" t="n">
-        <v>29.02596691323354</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-36.43818644592084</v>
-      </c>
-      <c r="D11" t="n">
-        <v>97.02515267741488</v>
-      </c>
-      <c r="E11" t="n">
-        <v>84</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B12" t="n">
+        <v>92.89651642063301</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19.176202579883</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.2112398331332</v>
+      </c>
+      <c r="E12" t="n">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44852</v>
-      </c>
-      <c r="B12" t="n">
-        <v>50.16111202561077</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-11.3403850795276</v>
-      </c>
-      <c r="D12" t="n">
-        <v>117.8844935140801</v>
-      </c>
-      <c r="E12" t="n">
-        <v>144</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B13" t="n">
+        <v>75.73576124394393</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.817460179421978</v>
+      </c>
+      <c r="D13" t="n">
+        <v>147.0123306503615</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B13" t="n">
-        <v>102.4233815608144</v>
-      </c>
-      <c r="C13" t="n">
-        <v>35.20799063939387</v>
-      </c>
-      <c r="D13" t="n">
-        <v>168.4396926780897</v>
-      </c>
-      <c r="E13" t="n">
-        <v>48</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B14" t="n">
-        <v>81.14775177131487</v>
+        <v>58.21995122556629</v>
       </c>
       <c r="C14" t="n">
-        <v>12.28792279739667</v>
+        <v>-20.06734354431965</v>
       </c>
       <c r="D14" t="n">
-        <v>149.284389532417</v>
+        <v>131.1480778773091</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B15" t="n">
-        <v>62.70435233031051</v>
+        <v>100.0902790124085</v>
       </c>
       <c r="C15" t="n">
-        <v>1.976728587077531</v>
+        <v>18.99041265225753</v>
       </c>
       <c r="D15" t="n">
-        <v>129.2569033438901</v>
+        <v>170.6548745905387</v>
       </c>
       <c r="E15" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>44866</v>
@@ -753,139 +753,139 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B16" t="n">
+        <v>66.45856366138371</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-6.129476405821152</v>
+      </c>
+      <c r="D16" t="n">
+        <v>133.6008244682978</v>
+      </c>
+      <c r="E16" t="n">
+        <v>84</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B16" t="n">
-        <v>101.8716076363819</v>
-      </c>
-      <c r="C16" t="n">
-        <v>36.52602854689444</v>
-      </c>
-      <c r="D16" t="n">
-        <v>176.0965338432853</v>
-      </c>
-      <c r="E16" t="n">
-        <v>60</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B17" t="n">
+        <v>60.9822228251771</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-8.12893857563992</v>
+      </c>
+      <c r="D17" t="n">
+        <v>131.0804283955933</v>
+      </c>
+      <c r="E17" t="n">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B17" t="n">
-        <v>70.68106262992639</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9567367181612567</v>
-      </c>
-      <c r="D17" t="n">
-        <v>132.0559692100925</v>
-      </c>
-      <c r="E17" t="n">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44887</v>
+        <v>44957</v>
       </c>
       <c r="B18" t="n">
-        <v>69.492051876869</v>
+        <v>96.2193517678287</v>
       </c>
       <c r="C18" t="n">
-        <v>2.139638109247056</v>
+        <v>30.93943860369658</v>
       </c>
       <c r="D18" t="n">
-        <v>142.2583774833689</v>
+        <v>164.0609308780072</v>
       </c>
       <c r="E18" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44880</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B19" t="n">
+        <v>26.57601602993135</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-38.34929310207722</v>
+      </c>
+      <c r="D19" t="n">
+        <v>100.4112078715788</v>
+      </c>
+      <c r="E19" t="n">
+        <v>72</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B19" t="n">
-        <v>100.9444698677139</v>
-      </c>
-      <c r="C19" t="n">
-        <v>32.22834426146434</v>
-      </c>
-      <c r="D19" t="n">
-        <v>161.4876016401291</v>
-      </c>
-      <c r="E19" t="n">
-        <v>96</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-12.98859662032326</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-80.81263528233642</v>
+      </c>
+      <c r="D20" t="n">
+        <v>56.48025999660978</v>
+      </c>
+      <c r="E20" t="n">
+        <v>84</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B20" t="n">
-        <v>37.33154501512137</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-28.77592297663154</v>
-      </c>
-      <c r="D20" t="n">
-        <v>104.7582125284181</v>
-      </c>
-      <c r="E20" t="n">
-        <v>72</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B21" t="n">
-        <v>-7.657548473500203</v>
+        <v>-40.59465358555006</v>
       </c>
       <c r="C21" t="n">
-        <v>-76.20474780522309</v>
+        <v>-116.1466677779385</v>
       </c>
       <c r="D21" t="n">
-        <v>54.60106364037448</v>
+        <v>27.76651312027484</v>
       </c>
       <c r="E21" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B22" t="n">
-        <v>-32.19928440689184</v>
+        <v>73.77847086645977</v>
       </c>
       <c r="C22" t="n">
-        <v>-100.7014542455342</v>
+        <v>8.584407428254597</v>
       </c>
       <c r="D22" t="n">
-        <v>37.9103817077702</v>
+        <v>148.5838076766639</v>
       </c>
       <c r="E22" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>44978</v>
@@ -893,39 +893,39 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B23" t="n">
+        <v>44.40743048245163</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-25.3370068785397</v>
+      </c>
+      <c r="D23" t="n">
+        <v>117.8433138595558</v>
+      </c>
+      <c r="E23" t="n">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B23" t="n">
-        <v>79.06497557910217</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5.087830016635085</v>
-      </c>
-      <c r="D23" t="n">
-        <v>144.3791520638241</v>
-      </c>
-      <c r="E23" t="n">
-        <v>60</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B24" t="n">
-        <v>52.47980566677847</v>
+        <v>112.7947260622725</v>
       </c>
       <c r="C24" t="n">
-        <v>-18.73922995455641</v>
+        <v>41.98254007167751</v>
       </c>
       <c r="D24" t="n">
-        <v>115.6697241404545</v>
+        <v>182.5745613689029</v>
       </c>
       <c r="E24" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>44985</v>
@@ -933,201 +933,181 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>98.77335785034049</v>
+      </c>
+      <c r="C25" t="n">
+        <v>31.30209631409565</v>
+      </c>
+      <c r="D25" t="n">
+        <v>171.3705401745051</v>
+      </c>
+      <c r="E25" t="n">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B25" t="n">
-        <v>120.9840219399984</v>
-      </c>
-      <c r="C25" t="n">
-        <v>52.69245454148501</v>
-      </c>
-      <c r="D25" t="n">
-        <v>190.942666463158</v>
-      </c>
-      <c r="E25" t="n">
-        <v>72</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B26" t="n">
+        <v>55.33087852201353</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-10.86126393242437</v>
+      </c>
+      <c r="D26" t="n">
+        <v>131.1540682685067</v>
+      </c>
+      <c r="E26" t="n">
+        <v>108</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B26" t="n">
-        <v>105.3444512679931</v>
-      </c>
-      <c r="C26" t="n">
-        <v>44.9820459729225</v>
-      </c>
-      <c r="D26" t="n">
-        <v>172.0278002799285</v>
-      </c>
-      <c r="E26" t="n">
-        <v>60</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60.2158135701716</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-7.366370690884525</v>
+      </c>
+      <c r="D27" t="n">
+        <v>131.4307218258887</v>
+      </c>
+      <c r="E27" t="n">
+        <v>60</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B27" t="n">
-        <v>64.13987785134876</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-3.419314578258799</v>
-      </c>
-      <c r="D27" t="n">
-        <v>129.0124660482997</v>
-      </c>
-      <c r="E27" t="n">
-        <v>108</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B28" t="n">
+        <v>95.16719776038785</v>
+      </c>
+      <c r="C28" t="n">
+        <v>32.8495810302637</v>
+      </c>
+      <c r="D28" t="n">
+        <v>164.5319892056007</v>
+      </c>
+      <c r="E28" t="n">
+        <v>72</v>
+      </c>
+      <c r="F28" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B28" t="n">
-        <v>60.42228249052536</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-4.866060306193805</v>
-      </c>
-      <c r="D28" t="n">
-        <v>129.5120279595033</v>
-      </c>
-      <c r="E28" t="n">
-        <v>60</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="B29" t="n">
-        <v>96.97435179396453</v>
+        <v>146.6818973381784</v>
       </c>
       <c r="C29" t="n">
-        <v>32.05351396763528</v>
+        <v>76.42764069609629</v>
       </c>
       <c r="D29" t="n">
-        <v>162.2177031659849</v>
+        <v>212.5692071322558</v>
       </c>
       <c r="E29" t="n">
         <v>72</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B30" t="n">
-        <v>150.8912331872967</v>
+        <v>96.08126341138163</v>
       </c>
       <c r="C30" t="n">
-        <v>85.70666723957375</v>
+        <v>28.74394458243038</v>
       </c>
       <c r="D30" t="n">
-        <v>213.5867664054076</v>
+        <v>162.9389925489605</v>
       </c>
       <c r="E30" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B31" t="n">
-        <v>119.4390893269445</v>
+        <v>90.49165494636307</v>
       </c>
       <c r="C31" t="n">
-        <v>56.66871926654802</v>
+        <v>20.6774677759548</v>
       </c>
       <c r="D31" t="n">
-        <v>181.3778739422533</v>
+        <v>158.4938160766361</v>
       </c>
       <c r="E31" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="B32" t="n">
-        <v>112.1494545196083</v>
+        <v>39.49679509396985</v>
       </c>
       <c r="C32" t="n">
-        <v>45.43210189762051</v>
+        <v>-30.95350483180611</v>
       </c>
       <c r="D32" t="n">
-        <v>172.6498333787754</v>
+        <v>105.3595395346666</v>
       </c>
       <c r="E32" t="n">
         <v>72</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B33" t="n">
-        <v>57.17083824058395</v>
+        <v>36.75843196724225</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.66204175883481</v>
+        <v>-31.27340977107008</v>
       </c>
       <c r="D33" t="n">
-        <v>125.9687262797273</v>
+        <v>108.1106064891837</v>
       </c>
       <c r="E33" t="n">
         <v>72</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B34" t="n">
-        <v>43.46494745865942</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-27.41288154733737</v>
-      </c>
-      <c r="D34" t="n">
-        <v>106.5602617668316</v>
-      </c>
-      <c r="E34" t="n">
-        <v>72</v>
-      </c>
-      <c r="F34" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1197,22 +1177,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1383.452414336394</v>
+        <v>1492.037223866147</v>
       </c>
       <c r="C2" t="n">
-        <v>37.19479015045513</v>
+        <v>38.62689767333311</v>
       </c>
       <c r="D2" t="n">
-        <v>31.55761853580944</v>
+        <v>32.68356420163042</v>
       </c>
       <c r="E2" t="n">
-        <v>1.561442689300572</v>
+        <v>1.457719179957892</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3656360889846233</v>
+        <v>0.4466497394608944</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6313569259653379</v>
+        <v>0.6564226054566308</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1223,25 +1203,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2107.546822100085</v>
+        <v>2281.480041111241</v>
       </c>
       <c r="C3" t="n">
-        <v>45.90802568288125</v>
+        <v>47.76484105606593</v>
       </c>
       <c r="D3" t="n">
-        <v>37.75542699339326</v>
+        <v>44.11268734473091</v>
       </c>
       <c r="E3" t="n">
-        <v>2.472971250366653</v>
+        <v>2.347048085925362</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09515841418981441</v>
+        <v>0.2721116408228665</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7386529124571216</v>
+        <v>0.8080965537690578</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1249,25 +1229,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>2846.890204133806</v>
+        <v>2798.633788266319</v>
       </c>
       <c r="C4" t="n">
-        <v>53.35625740373668</v>
+        <v>52.90211515871855</v>
       </c>
       <c r="D4" t="n">
-        <v>41.45828941198371</v>
+        <v>40.37933699445853</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6172096218343649</v>
+        <v>0.5981328290508893</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3963201741852858</v>
+        <v>0.4695552260973689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5063856842760028</v>
+        <v>0.5335065002441297</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8148148148148143</v>
+        <v>0.8076923076923078</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACOM4423020/OBACOM4423020_Sell in_metricas.xlsx
+++ b/modelos/OBACOM4423020/OBACOM4423020_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44796</v>
       </c>
       <c r="B2" t="n">
-        <v>76.84039501652691</v>
+        <v>81.13033435478164</v>
       </c>
       <c r="C2" t="n">
-        <v>3.595881691476858</v>
+        <v>10.81489826384634</v>
       </c>
       <c r="D2" t="n">
-        <v>151.442131080812</v>
+        <v>148.2266944211264</v>
       </c>
       <c r="E2" t="n">
         <v>96</v>
@@ -496,13 +496,13 @@
         <v>44803</v>
       </c>
       <c r="B3" t="n">
-        <v>89.04681481722108</v>
+        <v>92.57484981351143</v>
       </c>
       <c r="C3" t="n">
-        <v>21.54865351224622</v>
+        <v>29.069684548364</v>
       </c>
       <c r="D3" t="n">
-        <v>157.1286571007292</v>
+        <v>161.9723398365997</v>
       </c>
       <c r="E3" t="n">
         <v>84</v>
@@ -516,13 +516,13 @@
         <v>44806</v>
       </c>
       <c r="B4" t="n">
-        <v>59.7618281382234</v>
+        <v>59.7602190932157</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.86910892117097</v>
+        <v>-9.4370226687398</v>
       </c>
       <c r="D4" t="n">
-        <v>136.748632141874</v>
+        <v>130.9304727092905</v>
       </c>
       <c r="E4" t="n">
         <v>108</v>
@@ -536,13 +536,13 @@
         <v>44810</v>
       </c>
       <c r="B5" t="n">
-        <v>131.4630489470787</v>
+        <v>131.4628172044694</v>
       </c>
       <c r="C5" t="n">
-        <v>64.50955676405231</v>
+        <v>58.92059116144505</v>
       </c>
       <c r="D5" t="n">
-        <v>203.4481155860128</v>
+        <v>197.941849111039</v>
       </c>
       <c r="E5" t="n">
         <v>60</v>
@@ -556,13 +556,13 @@
         <v>44817</v>
       </c>
       <c r="B6" t="n">
-        <v>169.8424738848471</v>
+        <v>169.8430081433056</v>
       </c>
       <c r="C6" t="n">
-        <v>102.681659424594</v>
+        <v>101.5001352974793</v>
       </c>
       <c r="D6" t="n">
-        <v>238.355133903257</v>
+        <v>240.0327960599263</v>
       </c>
       <c r="E6" t="n">
         <v>168</v>
@@ -576,13 +576,13 @@
         <v>44824</v>
       </c>
       <c r="B7" t="n">
-        <v>177.3993384794088</v>
+        <v>177.3841159084661</v>
       </c>
       <c r="C7" t="n">
-        <v>104.2101556918318</v>
+        <v>105.2847524153516</v>
       </c>
       <c r="D7" t="n">
-        <v>247.9114509715314</v>
+        <v>248.4372478840492</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
@@ -596,13 +596,13 @@
         <v>44831</v>
       </c>
       <c r="B8" t="n">
-        <v>115.2766057328435</v>
+        <v>115.2762195112588</v>
       </c>
       <c r="C8" t="n">
-        <v>41.81625020387907</v>
+        <v>45.84358735581129</v>
       </c>
       <c r="D8" t="n">
-        <v>186.2199654648421</v>
+        <v>191.1581363530254</v>
       </c>
       <c r="E8" t="n">
         <v>156</v>
@@ -616,13 +616,13 @@
         <v>44838</v>
       </c>
       <c r="B9" t="n">
-        <v>55.3783636302561</v>
+        <v>55.33164521546304</v>
       </c>
       <c r="C9" t="n">
-        <v>-21.29197636853129</v>
+        <v>-18.26820880551298</v>
       </c>
       <c r="D9" t="n">
-        <v>124.744211468378</v>
+        <v>127.8075091387537</v>
       </c>
       <c r="E9" t="n">
         <v>84</v>
@@ -636,13 +636,13 @@
         <v>44845</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2310682248705</v>
+        <v>22.27919443214696</v>
       </c>
       <c r="C10" t="n">
-        <v>-41.73324758840015</v>
+        <v>-40.18460004764311</v>
       </c>
       <c r="D10" t="n">
-        <v>92.79316313868425</v>
+        <v>89.12027992604182</v>
       </c>
       <c r="E10" t="n">
         <v>84</v>
@@ -656,13 +656,13 @@
         <v>44852</v>
       </c>
       <c r="B11" t="n">
-        <v>40.62188143414139</v>
+        <v>40.62162963057597</v>
       </c>
       <c r="C11" t="n">
-        <v>-31.2618265974438</v>
+        <v>-30.79411882094442</v>
       </c>
       <c r="D11" t="n">
-        <v>120.1780806230177</v>
+        <v>114.7625785911317</v>
       </c>
       <c r="E11" t="n">
         <v>144</v>
@@ -676,13 +676,13 @@
         <v>44859</v>
       </c>
       <c r="B12" t="n">
-        <v>92.89651642063301</v>
+        <v>92.92206817911583</v>
       </c>
       <c r="C12" t="n">
-        <v>19.176202579883</v>
+        <v>21.1375398398831</v>
       </c>
       <c r="D12" t="n">
-        <v>164.2112398331332</v>
+        <v>166.8791138620078</v>
       </c>
       <c r="E12" t="n">
         <v>48</v>
@@ -696,13 +696,13 @@
         <v>44865</v>
       </c>
       <c r="B13" t="n">
-        <v>75.73576124394393</v>
+        <v>75.73577205583609</v>
       </c>
       <c r="C13" t="n">
-        <v>1.817460179421978</v>
+        <v>5.459490076596092</v>
       </c>
       <c r="D13" t="n">
-        <v>147.0123306503615</v>
+        <v>150.9031241066403</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -716,13 +716,13 @@
         <v>44869</v>
       </c>
       <c r="B14" t="n">
-        <v>58.21995122556629</v>
+        <v>58.21727132419063</v>
       </c>
       <c r="C14" t="n">
-        <v>-20.06734354431965</v>
+        <v>-16.58461583810434</v>
       </c>
       <c r="D14" t="n">
-        <v>131.1480778773091</v>
+        <v>126.1555646842666</v>
       </c>
       <c r="E14" t="n">
         <v>12</v>
@@ -736,13 +736,13 @@
         <v>44873</v>
       </c>
       <c r="B15" t="n">
-        <v>100.0902790124085</v>
+        <v>100.0973940881324</v>
       </c>
       <c r="C15" t="n">
-        <v>18.99041265225753</v>
+        <v>27.9155760745091</v>
       </c>
       <c r="D15" t="n">
-        <v>170.6548745905387</v>
+        <v>171.1749854176999</v>
       </c>
       <c r="E15" t="n">
         <v>60</v>
@@ -756,13 +756,13 @@
         <v>44880</v>
       </c>
       <c r="B16" t="n">
-        <v>66.45856366138371</v>
+        <v>66.45851645679035</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.129476405821152</v>
+        <v>-3.552076236087422</v>
       </c>
       <c r="D16" t="n">
-        <v>133.6008244682978</v>
+        <v>137.4254731287747</v>
       </c>
       <c r="E16" t="n">
         <v>84</v>
@@ -776,13 +776,13 @@
         <v>44887</v>
       </c>
       <c r="B17" t="n">
-        <v>60.9822228251771</v>
+        <v>60.98215459081028</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.12893857563992</v>
+        <v>-1.84170190309548</v>
       </c>
       <c r="D17" t="n">
-        <v>131.0804283955933</v>
+        <v>131.7544974256642</v>
       </c>
       <c r="E17" t="n">
         <v>60</v>
@@ -796,13 +796,13 @@
         <v>44957</v>
       </c>
       <c r="B18" t="n">
-        <v>96.2193517678287</v>
+        <v>96.21943247352282</v>
       </c>
       <c r="C18" t="n">
-        <v>30.93943860369658</v>
+        <v>28.35015697228578</v>
       </c>
       <c r="D18" t="n">
-        <v>164.0609308780072</v>
+        <v>172.5598327240133</v>
       </c>
       <c r="E18" t="n">
         <v>96</v>
@@ -816,13 +816,13 @@
         <v>44964</v>
       </c>
       <c r="B19" t="n">
-        <v>26.57601602993135</v>
+        <v>26.57794015651988</v>
       </c>
       <c r="C19" t="n">
-        <v>-38.34929310207722</v>
+        <v>-46.24020897549528</v>
       </c>
       <c r="D19" t="n">
-        <v>100.4112078715788</v>
+        <v>95.58500730825865</v>
       </c>
       <c r="E19" t="n">
         <v>72</v>
@@ -836,13 +836,13 @@
         <v>44971</v>
       </c>
       <c r="B20" t="n">
-        <v>-12.98859662032326</v>
+        <v>-12.9885961650035</v>
       </c>
       <c r="C20" t="n">
-        <v>-80.81263528233642</v>
+        <v>-79.26569659148687</v>
       </c>
       <c r="D20" t="n">
-        <v>56.48025999660978</v>
+        <v>56.92798561203132</v>
       </c>
       <c r="E20" t="n">
         <v>84</v>
@@ -856,13 +856,13 @@
         <v>44980</v>
       </c>
       <c r="B21" t="n">
-        <v>-40.59465358555006</v>
+        <v>-40.59340615268162</v>
       </c>
       <c r="C21" t="n">
-        <v>-116.1466677779385</v>
+        <v>-108.7251907563369</v>
       </c>
       <c r="D21" t="n">
-        <v>27.76651312027484</v>
+        <v>33.25663482423603</v>
       </c>
       <c r="E21" t="n">
         <v>72</v>
@@ -876,13 +876,13 @@
         <v>44985</v>
       </c>
       <c r="B22" t="n">
-        <v>73.77847086645977</v>
+        <v>73.77936676947783</v>
       </c>
       <c r="C22" t="n">
-        <v>8.584407428254597</v>
+        <v>3.5841263004568</v>
       </c>
       <c r="D22" t="n">
-        <v>148.5838076766639</v>
+        <v>144.4969812402982</v>
       </c>
       <c r="E22" t="n">
         <v>60</v>
@@ -896,13 +896,13 @@
         <v>44988</v>
       </c>
       <c r="B23" t="n">
-        <v>44.40743048245163</v>
+        <v>44.40775301324766</v>
       </c>
       <c r="C23" t="n">
-        <v>-25.3370068785397</v>
+        <v>-22.97936324665783</v>
       </c>
       <c r="D23" t="n">
-        <v>117.8433138595558</v>
+        <v>116.3403445038984</v>
       </c>
       <c r="E23" t="n">
         <v>48</v>
@@ -916,13 +916,13 @@
         <v>44992</v>
       </c>
       <c r="B24" t="n">
-        <v>112.7947260622725</v>
+        <v>112.7949963018743</v>
       </c>
       <c r="C24" t="n">
-        <v>41.98254007167751</v>
+        <v>42.19437303176948</v>
       </c>
       <c r="D24" t="n">
-        <v>182.5745613689029</v>
+        <v>183.1635529472395</v>
       </c>
       <c r="E24" t="n">
         <v>72</v>
@@ -936,13 +936,13 @@
         <v>44999</v>
       </c>
       <c r="B25" t="n">
-        <v>98.77335785034049</v>
+        <v>98.77477415628123</v>
       </c>
       <c r="C25" t="n">
-        <v>31.30209631409565</v>
+        <v>29.50922319485321</v>
       </c>
       <c r="D25" t="n">
-        <v>171.3705401745051</v>
+        <v>166.2564623275633</v>
       </c>
       <c r="E25" t="n">
         <v>60</v>
@@ -956,13 +956,13 @@
         <v>45006</v>
       </c>
       <c r="B26" t="n">
-        <v>55.33087852201353</v>
+        <v>55.80634230248869</v>
       </c>
       <c r="C26" t="n">
-        <v>-10.86126393242437</v>
+        <v>-15.04804841071873</v>
       </c>
       <c r="D26" t="n">
-        <v>131.1540682685067</v>
+        <v>124.8921849406016</v>
       </c>
       <c r="E26" t="n">
         <v>108</v>
@@ -976,13 +976,13 @@
         <v>45013</v>
       </c>
       <c r="B27" t="n">
-        <v>60.2158135701716</v>
+        <v>60.21496687819085</v>
       </c>
       <c r="C27" t="n">
-        <v>-7.366370690884525</v>
+        <v>-9.794645894652296</v>
       </c>
       <c r="D27" t="n">
-        <v>131.4307218258887</v>
+        <v>137.3330591693464</v>
       </c>
       <c r="E27" t="n">
         <v>60</v>
@@ -996,13 +996,13 @@
         <v>45020</v>
       </c>
       <c r="B28" t="n">
-        <v>95.16719776038785</v>
+        <v>94.87079100478849</v>
       </c>
       <c r="C28" t="n">
-        <v>32.8495810302637</v>
+        <v>27.14838441511935</v>
       </c>
       <c r="D28" t="n">
-        <v>164.5319892056007</v>
+        <v>165.6687106200638</v>
       </c>
       <c r="E28" t="n">
         <v>72</v>
@@ -1016,13 +1016,13 @@
         <v>45027</v>
       </c>
       <c r="B29" t="n">
-        <v>146.6818973381784</v>
+        <v>147.0396262158622</v>
       </c>
       <c r="C29" t="n">
-        <v>76.42764069609629</v>
+        <v>78.64805841233891</v>
       </c>
       <c r="D29" t="n">
-        <v>212.5692071322558</v>
+        <v>219.1292109434948</v>
       </c>
       <c r="E29" t="n">
         <v>72</v>
@@ -1036,13 +1036,13 @@
         <v>45040</v>
       </c>
       <c r="B30" t="n">
-        <v>96.08126341138163</v>
+        <v>95.85128464395754</v>
       </c>
       <c r="C30" t="n">
-        <v>28.74394458243038</v>
+        <v>32.88258339320886</v>
       </c>
       <c r="D30" t="n">
-        <v>162.9389925489605</v>
+        <v>162.8407572477819</v>
       </c>
       <c r="E30" t="n">
         <v>132</v>
@@ -1056,13 +1056,13 @@
         <v>45048</v>
       </c>
       <c r="B31" t="n">
-        <v>90.49165494636307</v>
+        <v>90.51065078773007</v>
       </c>
       <c r="C31" t="n">
-        <v>20.6774677759548</v>
+        <v>21.15869633018142</v>
       </c>
       <c r="D31" t="n">
-        <v>158.4938160766361</v>
+        <v>165.1084869092583</v>
       </c>
       <c r="E31" t="n">
         <v>72</v>
@@ -1076,13 +1076,13 @@
         <v>45055</v>
       </c>
       <c r="B32" t="n">
-        <v>39.49679509396985</v>
+        <v>39.51208071420982</v>
       </c>
       <c r="C32" t="n">
-        <v>-30.95350483180611</v>
+        <v>-32.64112767952018</v>
       </c>
       <c r="D32" t="n">
-        <v>105.3595395346666</v>
+        <v>110.5386329401699</v>
       </c>
       <c r="E32" t="n">
         <v>72</v>
@@ -1096,13 +1096,13 @@
         <v>45062</v>
       </c>
       <c r="B33" t="n">
-        <v>36.75843196724225</v>
+        <v>36.73120464690504</v>
       </c>
       <c r="C33" t="n">
-        <v>-31.27340977107008</v>
+        <v>-30.39711566215068</v>
       </c>
       <c r="D33" t="n">
-        <v>108.1106064891837</v>
+        <v>107.7654511042113</v>
       </c>
       <c r="E33" t="n">
         <v>72</v>
@@ -1177,22 +1177,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1492.037223866147</v>
+        <v>1492.005623000746</v>
       </c>
       <c r="C2" t="n">
-        <v>38.62689767333311</v>
+        <v>38.62648861857295</v>
       </c>
       <c r="D2" t="n">
-        <v>32.68356420163042</v>
+        <v>32.68309973924243</v>
       </c>
       <c r="E2" t="n">
-        <v>1.457719179957892</v>
+        <v>1.457647464644113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4466497394608944</v>
+        <v>0.4466646380257806</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6564226054566308</v>
+        <v>0.6564197246495848</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1203,22 +1203,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2281.480041111241</v>
+        <v>2286.994628148808</v>
       </c>
       <c r="C3" t="n">
-        <v>47.76484105606593</v>
+        <v>47.82253264046989</v>
       </c>
       <c r="D3" t="n">
-        <v>44.11268734473091</v>
+        <v>44.18919571704032</v>
       </c>
       <c r="E3" t="n">
-        <v>2.347048085925362</v>
+        <v>2.347605235614299</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2721116408228665</v>
+        <v>0.2738539042124429</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8080965537690578</v>
+        <v>0.8088744758264266</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1229,25 +1229,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>2798.633788266319</v>
+        <v>2794.367952805541</v>
       </c>
       <c r="C4" t="n">
-        <v>52.90211515871855</v>
+        <v>52.86178158940106</v>
       </c>
       <c r="D4" t="n">
-        <v>40.37933699445853</v>
+        <v>40.33594235613085</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5981328290508893</v>
+        <v>0.5979177925644397</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4695552260973689</v>
+        <v>0.4672478547509101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5335065002441297</v>
+        <v>0.5326036255621046</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8076923076923078</v>
+        <v>0.8461538461538467</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACOM4423020/OBACOM4423020_Sell in_metricas.xlsx
+++ b/modelos/OBACOM4423020/OBACOM4423020_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,59 +473,59 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B2" t="n">
+        <v>94.8431696753764</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17.08649625684477</v>
+      </c>
+      <c r="D2" t="n">
+        <v>169.19000492128</v>
+      </c>
+      <c r="E2" t="n">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44796</v>
-      </c>
-      <c r="B2" t="n">
-        <v>81.13033435478164</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10.81489826384634</v>
-      </c>
-      <c r="D2" t="n">
-        <v>148.2266944211264</v>
-      </c>
-      <c r="E2" t="n">
-        <v>96</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50.49899777565939</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20.36556376319295</v>
+      </c>
+      <c r="D3" t="n">
+        <v>121.1211378212203</v>
+      </c>
+      <c r="E3" t="n">
+        <v>108</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>44803</v>
-      </c>
-      <c r="B3" t="n">
-        <v>92.57484981351143</v>
-      </c>
-      <c r="C3" t="n">
-        <v>29.069684548364</v>
-      </c>
-      <c r="D3" t="n">
-        <v>161.9723398365997</v>
-      </c>
-      <c r="E3" t="n">
-        <v>84</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>44796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44806</v>
+        <v>44810</v>
       </c>
       <c r="B4" t="n">
-        <v>59.7602190932157</v>
+        <v>122.5355774684296</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.4370226687398</v>
+        <v>47.68115799502977</v>
       </c>
       <c r="D4" t="n">
-        <v>130.9304727092905</v>
+        <v>193.4043687358971</v>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>44803</v>
@@ -533,199 +533,199 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B5" t="n">
+        <v>157.3429501792684</v>
+      </c>
+      <c r="C5" t="n">
+        <v>79.88421360610248</v>
+      </c>
+      <c r="D5" t="n">
+        <v>235.4122204752929</v>
+      </c>
+      <c r="E5" t="n">
+        <v>168</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44810</v>
-      </c>
-      <c r="B5" t="n">
-        <v>131.4628172044694</v>
-      </c>
-      <c r="C5" t="n">
-        <v>58.92059116144505</v>
-      </c>
-      <c r="D5" t="n">
-        <v>197.941849111039</v>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44803</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B6" t="n">
+        <v>178.8420602872857</v>
+      </c>
+      <c r="C6" t="n">
+        <v>105.4726951580163</v>
+      </c>
+      <c r="D6" t="n">
+        <v>250.4408736166435</v>
+      </c>
+      <c r="E6" t="n">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>44817</v>
-      </c>
-      <c r="B6" t="n">
-        <v>169.8430081433056</v>
-      </c>
-      <c r="C6" t="n">
-        <v>101.5001352974793</v>
-      </c>
-      <c r="D6" t="n">
-        <v>240.0327960599263</v>
-      </c>
-      <c r="E6" t="n">
-        <v>168</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>44810</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B7" t="n">
+        <v>141.7268411910962</v>
+      </c>
+      <c r="C7" t="n">
+        <v>69.25890349804499</v>
+      </c>
+      <c r="D7" t="n">
+        <v>210.6162208960877</v>
+      </c>
+      <c r="E7" t="n">
+        <v>156</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>44824</v>
-      </c>
-      <c r="B7" t="n">
-        <v>177.3841159084661</v>
-      </c>
-      <c r="C7" t="n">
-        <v>105.2847524153516</v>
-      </c>
-      <c r="D7" t="n">
-        <v>248.4372478840492</v>
-      </c>
-      <c r="E7" t="n">
-        <v>36</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>44817</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B8" t="n">
+        <v>102.1886122049355</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29.77021587261648</v>
+      </c>
+      <c r="D8" t="n">
+        <v>177.9619878921735</v>
+      </c>
+      <c r="E8" t="n">
+        <v>84</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44831</v>
-      </c>
-      <c r="B8" t="n">
-        <v>115.2762195112588</v>
-      </c>
-      <c r="C8" t="n">
-        <v>45.84358735581129</v>
-      </c>
-      <c r="D8" t="n">
-        <v>191.1581363530254</v>
-      </c>
-      <c r="E8" t="n">
-        <v>156</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44838</v>
+        <v>44845</v>
       </c>
       <c r="B9" t="n">
-        <v>55.33164521546304</v>
+        <v>59.35306144907407</v>
       </c>
       <c r="C9" t="n">
-        <v>-18.26820880551298</v>
+        <v>-17.19999807616831</v>
       </c>
       <c r="D9" t="n">
-        <v>127.8075091387537</v>
+        <v>136.9203935724133</v>
       </c>
       <c r="E9" t="n">
         <v>84</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44831</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B10" t="n">
+        <v>54.56806282140214</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-21.07911848872763</v>
+      </c>
+      <c r="D10" t="n">
+        <v>130.286507494147</v>
+      </c>
+      <c r="E10" t="n">
+        <v>144</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44845</v>
-      </c>
-      <c r="B10" t="n">
-        <v>22.27919443214696</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-40.18460004764311</v>
-      </c>
-      <c r="D10" t="n">
-        <v>89.12027992604182</v>
-      </c>
-      <c r="E10" t="n">
-        <v>84</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B11" t="n">
+        <v>88.70071203118712</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.92170555336675</v>
+      </c>
+      <c r="D11" t="n">
+        <v>160.6217850926055</v>
+      </c>
+      <c r="E11" t="n">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44852</v>
-      </c>
-      <c r="B11" t="n">
-        <v>40.62162963057597</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-30.79411882094442</v>
-      </c>
-      <c r="D11" t="n">
-        <v>114.7625785911317</v>
-      </c>
-      <c r="E11" t="n">
-        <v>144</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B12" t="n">
+        <v>62.75281802607537</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-10.48439259633747</v>
+      </c>
+      <c r="D12" t="n">
+        <v>134.4274107581649</v>
+      </c>
+      <c r="E12" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44859</v>
-      </c>
-      <c r="B12" t="n">
-        <v>92.92206817911583</v>
-      </c>
-      <c r="C12" t="n">
-        <v>21.1375398398831</v>
-      </c>
-      <c r="D12" t="n">
-        <v>166.8791138620078</v>
-      </c>
-      <c r="E12" t="n">
-        <v>48</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44865</v>
+        <v>44869</v>
       </c>
       <c r="B13" t="n">
-        <v>75.73577205583609</v>
+        <v>46.47573619627094</v>
       </c>
       <c r="C13" t="n">
-        <v>5.459490076596092</v>
+        <v>-27.9376348020362</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9031241066403</v>
+        <v>119.9608396539055</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44859</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44869</v>
+        <v>44873</v>
       </c>
       <c r="B14" t="n">
-        <v>58.21727132419063</v>
+        <v>94.12492369534151</v>
       </c>
       <c r="C14" t="n">
-        <v>-16.58461583810434</v>
+        <v>22.65693806452131</v>
       </c>
       <c r="D14" t="n">
-        <v>126.1555646842666</v>
+        <v>165.9638222422242</v>
       </c>
       <c r="E14" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>44866</v>
@@ -733,139 +733,139 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B15" t="n">
+        <v>66.89937046241545</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-7.310628378133906</v>
+      </c>
+      <c r="D15" t="n">
+        <v>141.3483127411495</v>
+      </c>
+      <c r="E15" t="n">
+        <v>84</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>44873</v>
-      </c>
-      <c r="B15" t="n">
-        <v>100.0973940881324</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27.9155760745091</v>
-      </c>
-      <c r="D15" t="n">
-        <v>171.1749854176999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>60</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>44866</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B16" t="n">
+        <v>60.66532103645294</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-15.13189894704672</v>
+      </c>
+      <c r="D16" t="n">
+        <v>130.5490607405946</v>
+      </c>
+      <c r="E16" t="n">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>44880</v>
-      </c>
-      <c r="B16" t="n">
-        <v>66.45851645679035</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-3.552076236087422</v>
-      </c>
-      <c r="D16" t="n">
-        <v>137.4254731287747</v>
-      </c>
-      <c r="E16" t="n">
-        <v>84</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>44873</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44887</v>
+        <v>44957</v>
       </c>
       <c r="B17" t="n">
-        <v>60.98215459081028</v>
+        <v>93.57778175859701</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.84170190309548</v>
+        <v>23.1461480886387</v>
       </c>
       <c r="D17" t="n">
-        <v>131.7544974256642</v>
+        <v>167.6709814092434</v>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44880</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B18" t="n">
+        <v>21.6274295188751</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-48.8059481808295</v>
+      </c>
+      <c r="D18" t="n">
+        <v>92.44056220665456</v>
+      </c>
+      <c r="E18" t="n">
+        <v>72</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>44957</v>
-      </c>
-      <c r="B18" t="n">
-        <v>96.21943247352282</v>
-      </c>
-      <c r="C18" t="n">
-        <v>28.35015697228578</v>
-      </c>
-      <c r="D18" t="n">
-        <v>172.5598327240133</v>
-      </c>
-      <c r="E18" t="n">
-        <v>96</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>44950</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-22.22421086849489</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-96.79060799282412</v>
+      </c>
+      <c r="D19" t="n">
+        <v>52.13340810969745</v>
+      </c>
+      <c r="E19" t="n">
+        <v>84</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B19" t="n">
-        <v>26.57794015651988</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-46.24020897549528</v>
-      </c>
-      <c r="D19" t="n">
-        <v>95.58500730825865</v>
-      </c>
-      <c r="E19" t="n">
-        <v>72</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B20" t="n">
-        <v>-12.9885961650035</v>
+        <v>-50.01236909417802</v>
       </c>
       <c r="C20" t="n">
-        <v>-79.26569659148687</v>
+        <v>-123.3898220848568</v>
       </c>
       <c r="D20" t="n">
-        <v>56.92798561203132</v>
+        <v>25.82259167160466</v>
       </c>
       <c r="E20" t="n">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B21" t="n">
-        <v>-40.59340615268162</v>
+        <v>70.09686263418257</v>
       </c>
       <c r="C21" t="n">
-        <v>-108.7251907563369</v>
+        <v>-4.117809873889302</v>
       </c>
       <c r="D21" t="n">
-        <v>33.25663482423603</v>
+        <v>140.5044664799308</v>
       </c>
       <c r="E21" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>44978</v>
@@ -873,39 +873,39 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36.4714746379305</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-35.39466178732994</v>
+      </c>
+      <c r="D22" t="n">
+        <v>110.4654893002575</v>
+      </c>
+      <c r="E22" t="n">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B22" t="n">
-        <v>73.77936676947783</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3.5841263004568</v>
-      </c>
-      <c r="D22" t="n">
-        <v>144.4969812402982</v>
-      </c>
-      <c r="E22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B23" t="n">
-        <v>44.40775301324766</v>
+        <v>106.8727528731508</v>
       </c>
       <c r="C23" t="n">
-        <v>-22.97936324665783</v>
+        <v>33.22750128829616</v>
       </c>
       <c r="D23" t="n">
-        <v>116.3403445038984</v>
+        <v>177.1080913157321</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>44985</v>
@@ -913,201 +913,181 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>91.47406830423709</v>
+      </c>
+      <c r="C24" t="n">
+        <v>14.54538177738599</v>
+      </c>
+      <c r="D24" t="n">
+        <v>161.5337078081433</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B24" t="n">
-        <v>112.7949963018743</v>
-      </c>
-      <c r="C24" t="n">
-        <v>42.19437303176948</v>
-      </c>
-      <c r="D24" t="n">
-        <v>183.1635529472395</v>
-      </c>
-      <c r="E24" t="n">
-        <v>72</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B25" t="n">
+        <v>50.48937785041373</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-21.32600949845364</v>
+      </c>
+      <c r="D25" t="n">
+        <v>116.3545607830808</v>
+      </c>
+      <c r="E25" t="n">
+        <v>108</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B25" t="n">
-        <v>98.77477415628123</v>
-      </c>
-      <c r="C25" t="n">
-        <v>29.50922319485321</v>
-      </c>
-      <c r="D25" t="n">
-        <v>166.2564623275633</v>
-      </c>
-      <c r="E25" t="n">
-        <v>60</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B26" t="n">
+        <v>54.32827213109351</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-18.76563211786551</v>
+      </c>
+      <c r="D26" t="n">
+        <v>130.258557123284</v>
+      </c>
+      <c r="E26" t="n">
+        <v>60</v>
+      </c>
+      <c r="F26" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B26" t="n">
-        <v>55.80634230248869</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-15.04804841071873</v>
-      </c>
-      <c r="D26" t="n">
-        <v>124.8921849406016</v>
-      </c>
-      <c r="E26" t="n">
-        <v>108</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B27" t="n">
+        <v>92.46007527359404</v>
+      </c>
+      <c r="C27" t="n">
+        <v>23.27699137891579</v>
+      </c>
+      <c r="D27" t="n">
+        <v>159.2207218717379</v>
+      </c>
+      <c r="E27" t="n">
+        <v>72</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B27" t="n">
-        <v>60.21496687819085</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-9.794645894652296</v>
-      </c>
-      <c r="D27" t="n">
-        <v>137.3330591693464</v>
-      </c>
-      <c r="E27" t="n">
-        <v>60</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="B28" t="n">
-        <v>94.87079100478849</v>
+        <v>146.5076866783955</v>
       </c>
       <c r="C28" t="n">
-        <v>27.14838441511935</v>
+        <v>79.49817926700132</v>
       </c>
       <c r="D28" t="n">
-        <v>165.6687106200638</v>
+        <v>218.4240253851528</v>
       </c>
       <c r="E28" t="n">
         <v>72</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45013</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B29" t="n">
-        <v>147.0396262158622</v>
+        <v>90.86478525015812</v>
       </c>
       <c r="C29" t="n">
-        <v>78.64805841233891</v>
+        <v>23.9207713709561</v>
       </c>
       <c r="D29" t="n">
-        <v>219.1292109434948</v>
+        <v>171.4118521816706</v>
       </c>
       <c r="E29" t="n">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B30" t="n">
-        <v>95.85128464395754</v>
+        <v>86.72962469637335</v>
       </c>
       <c r="C30" t="n">
-        <v>32.88258339320886</v>
+        <v>18.1067531344753</v>
       </c>
       <c r="D30" t="n">
-        <v>162.8407572477819</v>
+        <v>159.7137253942199</v>
       </c>
       <c r="E30" t="n">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45048</v>
+        <v>45055</v>
       </c>
       <c r="B31" t="n">
-        <v>90.51065078773007</v>
+        <v>40.84371375755965</v>
       </c>
       <c r="C31" t="n">
-        <v>21.15869633018142</v>
+        <v>-31.6700130294008</v>
       </c>
       <c r="D31" t="n">
-        <v>165.1084869092583</v>
+        <v>115.9456562690826</v>
       </c>
       <c r="E31" t="n">
         <v>72</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45041</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B32" t="n">
-        <v>39.51208071420982</v>
+        <v>35.07167941293126</v>
       </c>
       <c r="C32" t="n">
-        <v>-32.64112767952018</v>
+        <v>-43.03453351620787</v>
       </c>
       <c r="D32" t="n">
-        <v>110.5386329401699</v>
+        <v>108.0783631518401</v>
       </c>
       <c r="E32" t="n">
         <v>72</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B33" t="n">
-        <v>36.73120464690504</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-30.39711566215068</v>
-      </c>
-      <c r="D33" t="n">
-        <v>107.7654511042113</v>
-      </c>
-      <c r="E33" t="n">
-        <v>72</v>
-      </c>
-      <c r="F33" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1177,22 +1157,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>1492.005623000746</v>
+        <v>1542.616180034123</v>
       </c>
       <c r="C2" t="n">
-        <v>38.62648861857295</v>
+        <v>39.27615281610615</v>
       </c>
       <c r="D2" t="n">
-        <v>32.68309973924243</v>
+        <v>34.50175459422702</v>
       </c>
       <c r="E2" t="n">
-        <v>1.457647464644113</v>
+        <v>1.215190771776035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4466646380257806</v>
+        <v>0.5324166872624131</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6564197246495848</v>
+        <v>0.7258908840464953</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1203,22 +1183,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>2286.994628148808</v>
+        <v>1936.856870045884</v>
       </c>
       <c r="C3" t="n">
-        <v>47.82253264046989</v>
+        <v>44.00973608243844</v>
       </c>
       <c r="D3" t="n">
-        <v>44.18919571704032</v>
+        <v>42.12992912338142</v>
       </c>
       <c r="E3" t="n">
-        <v>2.347605235614299</v>
+        <v>1.918740896240171</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2738539042124429</v>
+        <v>0.3116304147715294</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8088744758264266</v>
+        <v>0.817641382555815</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1229,25 +1209,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>2794.367952805541</v>
+        <v>2591.850777787023</v>
       </c>
       <c r="C4" t="n">
-        <v>52.86178158940106</v>
+        <v>50.91022272380099</v>
       </c>
       <c r="D4" t="n">
-        <v>40.33594235613085</v>
+        <v>37.69748468778838</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5979177925644397</v>
+        <v>0.5727722146576912</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4672478547509101</v>
+        <v>0.4327261978116715</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5326036255621046</v>
+        <v>0.4903665896656412</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8461538461538467</v>
+        <v>0.8399999999999999</v>
       </c>
     </row>
   </sheetData>
